--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.2/avg_0.003_scores.xlsx
@@ -124,18 +124,18 @@
     <t>support</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
@@ -151,16 +151,16 @@
     <t>safety</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>relief</t>
   </si>
   <si>
     <t>care</t>
@@ -1375,25 +1375,25 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.7444933920704846</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="L25">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="M25">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="N25">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O25">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1401,25 +1401,25 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.7121212121212122</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L26">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N26">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="O26">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1430,22 +1430,22 @@
         <v>0.7111111111111111</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N27">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O27">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1453,25 +1453,25 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.7111111111111111</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L28">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="M28">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1609,25 +1609,25 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.636085626911315</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L34">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="M34">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1635,25 +1635,25 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.631578947368421</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L35">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1661,25 +1661,25 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>0.6129032258064516</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L36">
+        <v>30</v>
+      </c>
+      <c r="M36">
+        <v>31</v>
+      </c>
+      <c r="N36">
+        <v>0.97</v>
+      </c>
+      <c r="O36">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
         <v>19</v>
-      </c>
-      <c r="M36">
-        <v>22</v>
-      </c>
-      <c r="N36">
-        <v>0.86</v>
-      </c>
-      <c r="O36">
-        <v>0.14</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>12</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1687,25 +1687,25 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>0.6122448979591837</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="M37">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>19</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="10:17">
